--- a/results/pvalue_OFFSIDES_all_DGI_AUPR+AUROCperdrug.xlsx
+++ b/results/pvalue_OFFSIDES_all_DGI_AUPR+AUROCperdrug.xlsx
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>13.016</t>
+          <t>16.816</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>12.728</t>
+          <t>16.32</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>13.704</t>
+          <t>17.721</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>13.551</t>
+          <t>17.704</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>14.091</t>
+          <t>15.218</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
